--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/6_Amasya_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/6_Amasya_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C5E64EC-1D7E-4835-B96F-5FA710D466AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{094BC4A0-301C-48A5-A165-8462C6F6B316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="658" xr2:uid="{E1430648-17CE-402A-94C0-51B1008312DF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="658" xr2:uid="{71FD8D90-F828-4E3C-A95E-6981CFA6A593}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -963,15 +963,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{B14CAD25-9BF3-4C4E-93DB-E65E8D90E45C}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{822515B8-A31C-4AE3-A301-2E54685AE5A8}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{124227A2-A39E-4904-A5AF-977B98987C3E}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{239B9C57-6E9C-4A4A-929B-9074955A52AB}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{913AF7A4-F443-4AD0-8101-D66E47068D70}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{BB6D090D-5598-4BA6-906C-2C78D03A8216}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{05AAA397-A3C4-4898-BC57-C57A06ADDAAA}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{08065860-FA61-44D1-9EF1-07E3A297B965}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{C886EC2A-719D-4F86-884A-7083C98C8D82}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{14D383D8-EDEB-42B8-B7B2-3FE142382267}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{A30ECA69-5852-4E7D-83F6-2F2EF08B2EDC}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{4CD73BB0-4FE6-4D93-8799-FE94E1996BF5}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{34539BE2-16C7-4657-A404-979B9099F241}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{FDACD475-A75F-426E-9C2F-4EF12B7B86B0}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{51DB2BC4-D85E-42D0-A5BF-BCD9F0012955}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{2B14397A-DF85-4795-9339-329B24944117}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{98FF70F5-9689-46E3-93C9-84C9E2EF6571}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{79F88AC2-0A66-4545-9BAD-EB73C7F83F9A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1341,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F70D85-CBD9-44A8-AD58-67F8C91C8687}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974B9928-4017-47DA-8D7D-4D267D07C362}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2639,17 +2639,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E4B3D0E1-1700-4182-82A5-3BE2DAF12AC9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2F5BF102-122B-4AC2-95D7-43B7BC31C151}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EC2C00A0-9684-40AC-B3B6-39C3FA4B4347}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4BBFB814-767D-429E-A529-CDAEBF83E12A}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{D29D57A3-0E20-4323-8170-D46CBC67AB7F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F5A168D3-A34F-42E2-A1A3-B795200E19A4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2C5C3E10-6558-4ECC-9D6B-8E11E2143BCC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{32D2A162-2BED-4779-B284-37D80788906B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A592E023-C760-4A74-8879-FF1D1D1E4BCE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{42E8CBF9-45F7-4DA5-BCE9-0CFA6A6FE772}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2D25335A-EB6B-4CA6-AD0C-1E515F426C56}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0CB1A7F0-821D-4605-BDD7-BBAB13A0C646}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AFDE332F-5160-4AB5-B5FF-93820C5D89A0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{94B2CAD1-B4AA-427E-9890-53ACC3DB726E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8B997101-F927-42D6-8CC7-7E4C46532545}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{38782D7D-5511-4F75-B7AE-7E4682D00400}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1F2A1EDE-46D2-401F-ADC4-63796C35B661}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D34FF816-4CEA-4235-94F7-A22A5D1583AF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{25413D47-50A2-46FB-8171-AA59377922DD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7A2A195E-7FFD-494C-BB5C-E574C967DB4C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9C389E34-E965-40A7-9260-0F1412A70C42}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8BDAB10F-9BF4-4125-ABC2-42D9D7AC2D1D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2662,7 +2662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D94A6F-EC32-4DBC-933D-7B4988696930}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AA052D-22D2-4893-AA5B-2589229079ED}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3943,18 +3943,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E887575C-F0BB-49EB-819C-3F925F381CB1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7BC79E9C-88B0-43C7-BD23-9F555C6F3006}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{730CE54D-40B4-4D32-BAAE-A911256CE377}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DCA61110-06C8-4FED-890C-5D634D5A8CC6}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{41533B84-C3B7-4830-B767-80530C21B764}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FD0757BE-759A-47AB-862E-1B47718828F0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B1677F74-CB34-46D7-9712-FE8D97E1CCDE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FF8D4DFE-89CC-4299-BF24-714354DCFD57}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{12E57BCD-BBE1-46D6-A680-CCC384167139}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A39ACA0C-BFCF-4392-84E9-68DF40FE6088}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CF1EA0E3-E8E0-4F37-BFDC-EB3774E0C035}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DA705B8F-73AC-4663-B149-A20D377186C8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{846C3B3F-77E2-40F0-8AE7-9E4B32D22519}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DB3513F7-9647-463D-99F8-A457DA6EB6C1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{89898CAB-C0D7-4A62-875C-073DA0C259B2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B5DE30AE-367A-4815-8A34-1E8A277CB5F1}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{1E5F83F7-F129-417D-99AC-41FF3C6690B4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{27D5F7C0-5A1B-4D1C-9069-A81678F8A2E1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A81CE080-E4F0-489A-A5D8-421CA99B8BC8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D4445B6E-B00E-457F-9ADE-210CB255BE07}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8B0C6E0E-EF06-4BFE-B5C1-EB44FEC4E9AF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C77F8B96-EAF4-41D6-AE99-CC1C9291A0D1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D1897FF0-2475-41DB-BC5B-42B7C18044D4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AF7FB6C8-4BC0-489F-8075-1EA18AD011FF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3967,7 +3967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5781DC5E-50EB-4D64-8CF7-1611F19A62BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9E3563-29BE-4FCC-A22C-4ACA99FE92E3}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5248,18 +5248,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BA1EA177-E9FA-45A8-ACE3-62C39313F73E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8E07B68F-481E-465E-9682-7ACE92438DEA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BAAF3EB5-AE81-4545-A78C-1E00E04C3723}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{257DF013-73D3-4B9B-8EB2-28956A8BA64E}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{DDA8C68A-7D4B-48D4-8A26-710D597524A8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{586F5898-6D7E-4D54-9FDF-852385F3051B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DAC71EBA-BD7B-4B05-9B24-090BB820B8D6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EA80BDE0-6E36-41FF-8982-FCDC19C92752}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FB9ED19F-47E3-435D-AE87-8B61B9C980A2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DFC2856E-A989-48FE-B151-C137623A8701}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4D9437E7-A806-4CBD-958F-EE118C7E5E71}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F22E80BC-0374-4295-AF0F-3B741E04BF99}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4A12677A-B702-400B-8CBB-23ADBDD94F2C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1A850F84-E225-45F8-ABD9-E3852866A050}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FD2E0309-54D6-4736-A200-2EFB96D8D51C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ADCEF882-19C5-4F17-865C-74035EED8F2A}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{16C2FBCB-F7A2-4975-8FFF-BE2FD4B8A631}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6C4F566A-6651-4E49-B44B-5CA645AA1E99}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{347DB74E-25F4-4EB5-AB90-54E75A328D4F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BCE5C5FA-0712-426E-9698-E45AC5546427}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C2749380-B2F8-4492-AFF0-3FCBE2AA6217}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A79D590D-981F-4B07-B705-34E4BA2CF2F0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B68D56FD-0BEF-4D4D-B344-DD5ABE3A3111}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EFB40B8B-CC6D-414D-BB84-4F13A38B6F80}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5272,7 +5272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD958AA3-6C5B-432F-84D0-1281A2EF3567}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD80477-E625-4DF6-8898-66F629E57AF2}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6550,18 +6550,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ED6B703A-376E-4512-A09E-F212926DECC0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BE853AC6-2D05-4B03-9FD7-367F13E87B8A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{24B0F1FD-3060-457D-98A1-F992207E058C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{568DEE7D-DD94-4B31-B6D8-9F2DC08E4DD6}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{E24D6ED1-97E8-4012-A69A-E41C01692C2C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4AEEBE8F-DD3C-4340-ADC1-E663C51113AD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B5185259-6008-4977-BEE5-883798645010}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A5BBCAD0-4303-44B6-8785-8D37FB306A80}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0B391D10-C6A2-45D7-A247-2540E8C51CB5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{97CA5BB8-E61B-44BC-8D19-D25AC659904B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C9F179C7-C89A-463C-A79A-FC2E83C749B6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E22B3CA4-1E7C-4ACE-AFCB-CBA1F4598363}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{67BA73B2-6906-482F-8612-25537EBF54AE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5DF46BBC-1A50-45E1-9B63-FC0CE99B9040}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{39543745-314C-4EFC-A776-CB871574E2F7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6B48859F-2C24-472B-A876-6F99C6024E43}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{4060A0DA-12F7-4CB9-A06A-19E836973303}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{01E1A610-005F-4C67-8DD3-928FBEBD7219}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6C28CE59-FDF8-498D-B9E5-9F1425FC45AD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5FD0B14A-0E36-48D2-8E5D-D623FFA523AB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0FD2A248-DECF-4193-84FC-8540020E9653}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{94ED78F6-225E-490D-9A20-0FEB55680ECE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4F6B5AF7-E0CF-4C81-8A43-E0AD9460EF68}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EA8D85C4-3340-4D9D-A553-B2B011488CBB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6574,7 +6574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA4E162-5BF3-4C27-928C-B9590E89D47E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD28891-E914-4600-A794-909CB2211785}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7867,17 +7867,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DF70B9FA-5A96-4D05-B4AC-8E7962624C56}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F2EFBE66-3BD3-4775-A527-68AB7B57AF48}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8AEAB9F1-7FBC-46D4-9AE2-D81CD8C087A6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8AC4DA6F-38C5-4B5F-B0FE-A5C2DDDA2FCB}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{78D5696F-AF75-4B51-87D5-744FAF4FAD6D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C35E125E-18C8-4C9F-B204-F0DB6BC9F974}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AFC11D31-38E7-4230-B1CF-DF90BBA7E723}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CCAFE979-3077-4EE0-9E2D-08E6B03BE0B5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ED121C45-58A9-480D-BDEA-1DCFCB0D9FC5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{909B75CE-09E5-4015-BB01-7E230F13BE26}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E77F6E85-DEB2-4FA2-873A-F2DE65605652}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{30595DF8-41B9-451A-9B45-E5D08C31D231}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B0825297-E3A0-4176-87A9-3127A225FF7D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F4DB9CDD-BC5F-42BB-B5A4-6AB4BE47EDAF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{851A1870-A727-432D-9803-5DB4D63B4FEF}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{0C549F62-885B-491E-9FE1-78C540D593B4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B78987E0-8B99-41B0-A36D-D9A13D349DE5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{72F6A79A-5C07-4491-A410-CDF75050D484}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ED8C8BB3-021F-4918-ADF1-3D5E061600AD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8E28791F-955A-4682-8E94-61F96C8E8C28}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BBB49007-7CE3-467B-B0F8-1BE030C0968B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{806707B5-D68C-442D-8F9C-A9B63F6F32BF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7890,7 +7890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39129B70-775F-4A0A-B0EE-DA48DBDFA477}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B4D4DE-ED05-4104-9793-FABF64D283F4}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9185,17 +9185,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{227CAC0F-94FF-418D-8C70-10E611030B4A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{98C53162-736B-4285-9614-377DB0BF0192}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{258BC5D7-7B6E-4273-AE74-075CA5201D5F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AABA5B18-89DE-4C32-8002-957B4CB519B1}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{84D05EEF-32C1-4905-8C49-00D8301D2095}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{47552BAF-D8CB-424A-9414-A1878B02343B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E0A03FEC-C484-48BC-97DA-246A20067FA6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DAB0A1C8-BCC2-4C3E-8773-B03CF01832D0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{05F68FA9-5C80-4573-A7B2-5612F80A5616}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FEA2586E-9513-46B9-B547-CBB5BF4052A2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5BF876B9-5FED-4AE2-B5BF-BA29D9ADD048}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A0075C98-2C5D-4803-9302-EFC5977BAB6F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{271EECE3-8E81-4816-8038-EAF1995A468A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3B962DFE-095C-49E9-8A2A-99BBDA9640AA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CA4DF0A9-AE33-4A0C-BD54-71B96853B1B4}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{3C97FFB1-0DD2-4D62-980C-8239E94BA860}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6BEC9899-2103-42AF-BF19-C9F6B1A8F433}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E25CB419-B1CA-4D3C-B39F-1D4537E053BE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{10102296-3C13-4283-8026-4D76E43DDF16}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F9823C23-93BB-4561-B34E-01D2B433BD0F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7CAC6B01-E9CE-4DC4-86F2-F708B3EDD2F0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C78FBB4E-2067-4CB8-AE3D-DEED35831F39}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9208,7 +9208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED341FA-4339-4FF3-833E-F6E867652178}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F13AF83-9E56-40CA-91E8-3E6DF71AEFE3}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10497,18 +10497,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FC9E124E-2F85-493C-95AE-3FDCC0AC2784}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B443CD46-7155-4906-A948-2C62ED29B14C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8F08D01D-33CB-43F9-A84B-8B846A6C1E0B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C72093EB-C45B-4B11-B576-F09EFF26E74A}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{1722D9FF-59D5-49FB-AEAC-41AD03A25EA5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EEE9D7EC-F8A8-45F8-A173-554F90BD912C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{49F5A13C-E4D9-4BE0-B257-E9E9B49BAAD8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E04DA615-05B6-48A2-ABE2-1C625FCB825D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A0204F63-E402-4E1E-9465-AB87600E19C9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{39E2444B-249A-4CB9-ABDE-6811DE9A6229}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DEEBCF68-AC80-46A7-BE5E-805E1FB876A5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{935143CD-C9A3-4566-B66E-F3F07A0D7490}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{047FF1ED-244B-4196-B385-6136C6BAF07F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{538117FA-7F6D-46FC-A0FD-D626FB318583}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1FBD1FC8-1EC4-41C6-B643-EF78C81562F2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DE9A4E67-F25C-4C91-8D10-274A9B4E6D09}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{719109CC-1AFE-4416-BFD9-297FE05B36BC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F121598A-A70F-4B33-A592-54898307A3F7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{949C97F0-2D06-47CB-9401-CA594280573D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EE342503-0580-45C7-974B-66866FB883B5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{72AB6E88-B99B-4AAC-9137-67B1062813FD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{80D3212E-90F4-46E0-8085-D1C19EB88337}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D6736FC4-E8C4-4B54-B8FC-02D4B50AFBD1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{032C9860-8B55-4EBA-885F-5DCAA90B6DDB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10521,7 +10521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C96388E-1FF9-4DF4-8019-1046800467FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D9D28E-B675-4E4A-B2D2-F089B02F3FC0}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11812,18 +11812,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{42E5FE84-E888-442E-BD54-C021DAC78670}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5C385F80-6872-4956-85D6-586CE38DFB8F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E74946BF-2383-45CC-9C5C-919F64B089B7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{14266346-55EF-479D-87FE-73BD98B48F14}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{E6510F88-9524-4B58-86B6-D47BF3FE1C89}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9883566E-DFDC-4D33-9FE1-8337C0493F8B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{76F5C990-D0D8-4EFF-B777-CAEC0C62E41E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DDA63013-B1A5-407B-8CB7-BA4908610DE4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D42940E0-D6BC-40B7-9B62-207422738FE5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5A0898FA-CFFD-41CF-938E-BF56B439FE03}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{604BC9D9-6304-4010-A5E2-571A24F74AD8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E5F197E3-7BCC-4F88-B3FD-2FD45A8EE856}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{69E96160-41CA-49D2-A35C-78CFE29E0A81}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1344FECE-FC4F-46DB-98A8-81F62328B598}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B0170DA9-7F9F-4C08-A591-18644D3053EC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9EFE9717-2427-428B-A869-DAED37D12732}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{9A2F5C8E-0107-498A-B43B-0A4AC337B41D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4570B84D-C116-4EEC-9FF4-99FF319310F0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9A5962ED-7FC4-4BF8-92E4-83C2FBE2E64A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F7FCC772-772E-4F6D-95A2-EC088A9B858F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DBEDE4CA-C261-4085-8A4B-F18AAAD08FBB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4024E870-C3AD-4516-85FD-8938CC4E9DDA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E7EA9B2D-88F3-482D-BD27-447411FF67E6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ACE38BFE-1BDD-481B-9260-F76BC8CF88CA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11836,7 +11836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781482CA-8E77-4C0E-84EE-1D36F3B015B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F525C9-9912-48DF-804F-3118DA2086EE}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13125,18 +13125,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4FBF7629-EE03-45FB-84EA-4D63A2E53936}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FE6EAD7E-13DA-44E0-A07F-5546F4B0CFC5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EA065CB1-DC9E-4CD2-BCEE-F762706E6E88}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AB3FC0B7-EECA-4D9E-99C4-F5DACA95DB05}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{AE9165C0-41D5-4AA6-B446-24CE87ED33E4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{61EFC528-DDF3-4916-9DAF-053E2F2F13F7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B96B94A8-8E76-4209-844E-C1D6FE5DF806}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A308BE60-3291-4C7E-8CF2-413D5EB47288}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{53A308E5-B8CB-47F3-9F5E-A14290A0475E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DCE8BF1A-84EF-4CDA-8AE8-112B6CC7A10C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{03891B27-FB16-4F4E-8A02-1C076DE27B0E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3E269D6E-2ACD-40A1-BBE0-E306B0DCB6B3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F05F872A-0E4E-4080-A532-5AFC33D16FA4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FCF073B0-41FF-449C-A3BE-27E0A0AA068E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{391D46D4-1B8F-484D-B362-2F01E17653D3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D5809BB6-22EB-4EA4-918D-98A547363FD2}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{A29DBB06-5A76-4D16-BD14-214FD73BB832}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E6B04A85-C3FD-404D-BBD9-A16A663E316F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{636FCA92-2ED9-481D-98CD-679DBBB52576}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A13E5F19-6676-4727-A5FB-B782D02DF865}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{670EDA28-83C0-4A37-8A04-370043D2B801}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D5B06CF6-9672-4339-8A91-0894CCB65141}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CCB6B3CA-9179-4385-91BF-748B5A8540B8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C305C705-B1F9-4E90-9E8E-4BB0BF818EA5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13149,7 +13149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84841FA4-C042-40B7-86F8-01D1B21C1F5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8483BE3-48AF-4F2F-85C7-A6E6DF593ED2}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14438,18 +14438,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E4FED620-5FAA-4B74-A6FD-5DF2374BED88}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0F16835F-9DB4-4D8D-B50F-38C2DF6A6C9A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6C9D1784-CF5E-45F9-AAC5-D7A274DA65AA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8629D10A-219A-4311-98F6-6C7835997BC2}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{878931E0-95A1-44BC-8E38-13E74B261EB3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{578B602A-D54F-4989-AD2D-008CEFBFBEC1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AF02C064-6F02-4347-9859-58E8F8FE9506}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{30695C19-53B7-4D2A-AB10-0CC98E05AF18}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C48D3DDE-596A-4AC7-8BDB-D6BA2DEEAC52}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7AD92C66-AD17-4324-8C7D-FC498DE7C067}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{68398025-AC22-4EA9-9B74-381761356B1C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8B338279-ADBD-45EA-BB9D-94205413C51E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E38BCB7F-6E76-415C-81AD-841D01A4BFB8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D57CF3C6-DF04-4618-8FC2-456E49762F2A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{85B02603-FA8E-4C0C-9F26-C666EB3183B4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AC6A9A21-2234-42A9-86DA-5FDBBA489E89}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{CCBAD2D6-CEAB-440D-8962-2DD73BCA5CC1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4A17E7B1-031F-4D99-9104-CBE2218B4D0C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0B862090-2AF3-47B3-A106-99A5D7AA38D5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8E260925-DFE6-4E62-A9BE-9F03327E9FE1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3FB8AF59-01DC-4418-86B3-EA118AC34A43}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E42094E3-9186-42CC-873A-DD7800C8B6FE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{736594FF-1657-4E40-850F-419DD10726FD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F962D64B-6FA3-4956-ADCF-BCDF80C839C8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14462,7 +14462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F886BF-2BA7-45A5-8CFD-205D70E2E7A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A159F84E-97E3-4B0B-8459-6029AFE9B752}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15751,18 +15751,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D859A30E-DCAC-4EB4-9950-33DBE3B91A39}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EB1A781A-5EB3-4920-BA5D-C14C2B0BEC9A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{277BE19F-BAFE-4DF5-95FB-6A549C4CC2E5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EA79365C-9F63-46EE-9CE0-8B6219846015}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{633FB902-5096-4E11-BDB3-183ABB07D264}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5438FD5E-445F-4076-9F63-3DA206FD2B9D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9D548BFF-4AC6-4C44-A808-73C9DE9ABF79}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7C5D3F9B-44CE-418C-B425-8FD8A225F8DF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DB3BB531-A088-4634-8176-3CD7CE3283E6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{63FE6470-B232-4AD9-8FA1-C2175C3246E9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D5BEAE50-21A8-4992-AB4F-29CC40458362}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4DD4FF6A-11AA-4A49-B2A0-E1C790728E53}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B997C66B-19BA-4069-98E8-43CC70B158E1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0009925B-759C-4528-9A59-FA3EEE6CFF36}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9952F799-53B5-44A5-9459-5535067B5893}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D85A526B-1839-459C-B2EF-3828FBE3BE6C}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{395ACE9B-05B5-46F6-8CD9-0B1881B06E5C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DC67C6FE-498A-45CD-ACDF-213A5620B624}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{95F06AE9-A536-48B8-A2A7-CC7214CDC634}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4B19C174-9716-4FDD-88FC-A18325DAA889}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{033A6B14-612B-419F-BCBD-37ED462C2055}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8621E853-2F2F-46E4-91CB-B3717306F7C0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{85E10956-FBFB-40F0-A1A0-2D571E9CAAD3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{784FC35B-E9AE-4245-9B44-2CF836DACCB9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15775,7 +15775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07ECAB75-1452-4F43-94B1-248861A2F549}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1BFF4F-13FF-425D-B6DD-3EA93291A443}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -17064,18 +17064,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BC0D42F3-BF06-4D4D-90F1-7585E8524EA8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{361628FC-D31F-4562-A1BF-4A56A995242B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F6177906-51C6-48C9-8AF9-F9EF79D33B54}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4D25BA06-3598-4571-A207-1D339410C327}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{CDBE1E05-0B81-461C-9FA6-3BCA818468D3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{76584F4A-D70B-445E-9E1F-02F8C7CB4A07}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{47951A6E-540A-4CAF-857C-B6606244BE9C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{539EC4D0-5BB2-4E66-B4FD-ADBDDA040239}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E7844559-9CD6-4CC5-BDBE-6146E8B15760}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F8BA1675-2751-4EA0-9C6B-B613B93E4E66}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CC636D54-A1BC-48FE-BF2D-EB1B89EEA676}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{19DBC2B3-AADF-49B9-948A-86BAAD4690F1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{798FD9B8-41C1-4EDC-BA61-46FD31F9A43B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3D8C8264-2B66-482E-84E8-FDBD68B61037}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C39B9566-37FF-408F-9D0F-696C69A24C48}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F24F0293-58AD-447D-AAD8-B2F4DD607AF7}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{C36E65B5-3329-486E-B5A7-20A80D46F088}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E4373414-8863-4FD7-B58B-0031E4E97228}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B9B37BFD-7F17-4164-9EC9-08654C43B467}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5B51D7E8-8A48-43B3-A758-FF2D03E53173}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{72DD1679-80AF-433C-9657-33846B57CA2B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E9E83D21-016C-434D-88F1-781A00B737E1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F2BCA825-F0A3-4FD1-8899-10F9351400B7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DC248A3E-82E7-4376-BA62-1C32B442E7D9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
